--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2969874.300266576</v>
+        <v>2967986.718750175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>591579.1891239585</v>
+        <v>712465.5357414066</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226.5550410134732</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>192.2503842664056</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>198.6053843988551</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>74.24596078692618</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.5292151279623</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>207.0351854764313</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7356466614543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058714</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755717</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>12.78665020091389</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>177.7059714321712</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>188.1607094910702</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>202.4005907024493</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>101.4950386131017</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>254.8709249258138</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.0952537370578</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.85553884047384</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>78.67531269947837</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415119</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1181.549686895098</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>812.587169954686</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>812.587169954686</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>812.587169954686</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>401.6012651650785</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.752638628377</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.752638628377</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.5174848136515</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2646.109479777856</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2646.109479777856</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2646.109479777856</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2646.109479777856</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2646.109479777856</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2293.340824507742</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1919.875066246662</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.875066246662</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1865.381229508784</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>1496.418712568372</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>1138.153013961622</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>752.3647613633775</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>341.37885657377</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2251.981069572906</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4960,52 +4960,52 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,7 +5030,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,13 +5124,13 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2209420433995</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1609.589088435861</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>576.0756695821902</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>407.1394866542834</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>257.0228472419476</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>257.0228472419476</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>110.1328997440372</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>757.72413441243</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,7 +5364,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1319.415289313285</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1319.415289313285</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1030.286650526843</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>775.6021623209559</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>486.1849922839953</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839953</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,7 +5601,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123425</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123425</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1308.854947839649</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.726309053207</v>
+        <v>959.6107107956484</v>
       </c>
       <c r="V19" t="n">
-        <v>765.0418208473204</v>
+        <v>704.9262225897616</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103599</v>
+        <v>415.5090525528009</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123425</v>
+        <v>415.5090525528009</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123425</v>
+        <v>415.5090525528009</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,13 +6008,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>629.3975440735812</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.0340835819379</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247854</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247854</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188986</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>420.0340835819379</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>420.0340835819379</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.0340835819379</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,19 +6446,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440238</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440238</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>565.420029503087</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,64 +6683,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,10 +6880,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1029.165307834915</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1797.533454227377</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>436.8967109626374</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>381.3300194168668</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1149.698165809328</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,10 +9729,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>153.7069182624637</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>20.21483855143205</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>33.38685156731901</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>83.83676169612808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>150.6426047107263</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>31.65207341077721</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>14.15156736157002</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.7731847129064</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>14.73690369017692</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.592326932761353e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.042593449</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934489</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851688</v>
+        <v>630574.3128851682</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448201</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.333471679274226e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758629</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759224</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758887</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758888</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758785</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.4162047724</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>23206.58093189632</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189632</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137532</v>
+        <v>-175578.7248137533</v>
       </c>
       <c r="C6" t="n">
         <v>414389.1544007914</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007907</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273998</v>
+        <v>-11937.57264871133</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541564</v>
+        <v>513222.4638281842</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541561</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541559</v>
+        <v>513222.4638281842</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541558</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615631</v>
+        <v>336799.244635591</v>
       </c>
       <c r="K6" t="n">
-        <v>470831.0828473279</v>
+        <v>470812.5891093931</v>
       </c>
       <c r="L6" t="n">
-        <v>505042.7780920315</v>
+        <v>505042.7780920317</v>
       </c>
       <c r="M6" t="n">
-        <v>380584.6696590612</v>
+        <v>380584.6696590614</v>
       </c>
       <c r="N6" t="n">
-        <v>515385.6848928985</v>
+        <v>515385.6848928983</v>
       </c>
       <c r="O6" t="n">
-        <v>515385.6848928986</v>
+        <v>515385.6848928982</v>
       </c>
       <c r="P6" t="n">
-        <v>471223.0795900525</v>
+        <v>471223.0795900526</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.1788006500074</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>221.5337857543894</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>87.67648984312268</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>339.5382092338688</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.9491874468494</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.67446991260582</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.19472341080751</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>129.2226540149236</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>128.057140389012</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.038054554185387e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>104.1923998689413</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,16 +33199,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33676,7 +33676,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>294.0351935977453</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,13 +34445,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>216.4869287318326</v>
       </c>
       <c r="L45" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,7 +34460,7 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4783653925263</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35969,10 +35969,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.3211591213303</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="L45" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
@@ -38108,7 +38108,7 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
